--- a/static/sysfiles/download/results.xlsx
+++ b/static/sysfiles/download/results.xlsx
@@ -379,13 +379,13 @@
     <t>NoSQL key-value - cache</t>
   </si>
   <si>
+    <t>NoSQL key-value - support</t>
+  </si>
+  <si>
+    <t>NoSQL column - users</t>
+  </si>
+  <si>
     <t>NoSQL document - courses</t>
-  </si>
-  <si>
-    <t>NoSQL key-value - support</t>
-  </si>
-  <si>
-    <t>NoSQL column - users</t>
   </si>
   <si>
     <t>garbage</t>
@@ -836,7 +836,7 @@
         <v>118</v>
       </c>
       <c r="I3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -894,7 +894,7 @@
         <v>118</v>
       </c>
       <c r="I5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -923,7 +923,7 @@
         <v>118</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -952,7 +952,7 @@
         <v>119</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -981,7 +981,7 @@
         <v>119</v>
       </c>
       <c r="I8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1010,7 +1010,7 @@
         <v>119</v>
       </c>
       <c r="I9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1039,7 +1039,7 @@
         <v>119</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1068,7 +1068,7 @@
         <v>119</v>
       </c>
       <c r="I11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1097,7 +1097,7 @@
         <v>119</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1126,7 +1126,7 @@
         <v>119</v>
       </c>
       <c r="I13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1155,7 +1155,7 @@
         <v>119</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1213,7 +1213,7 @@
         <v>119</v>
       </c>
       <c r="I16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1242,7 +1242,7 @@
         <v>119</v>
       </c>
       <c r="I17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1271,7 +1271,7 @@
         <v>119</v>
       </c>
       <c r="I18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1300,7 +1300,7 @@
         <v>119</v>
       </c>
       <c r="I19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1329,7 +1329,7 @@
         <v>119</v>
       </c>
       <c r="I20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1358,7 +1358,7 @@
         <v>119</v>
       </c>
       <c r="I21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1387,7 +1387,7 @@
         <v>119</v>
       </c>
       <c r="I22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1416,7 +1416,7 @@
         <v>119</v>
       </c>
       <c r="I23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1445,7 +1445,7 @@
         <v>119</v>
       </c>
       <c r="I24" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1474,7 +1474,7 @@
         <v>119</v>
       </c>
       <c r="I25" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1503,7 +1503,7 @@
         <v>118</v>
       </c>
       <c r="I26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1532,7 +1532,7 @@
         <v>119</v>
       </c>
       <c r="I27" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1561,7 +1561,7 @@
         <v>119</v>
       </c>
       <c r="I28" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1590,7 +1590,7 @@
         <v>119</v>
       </c>
       <c r="I29" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1619,7 +1619,7 @@
         <v>119</v>
       </c>
       <c r="I30" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1648,7 +1648,7 @@
         <v>119</v>
       </c>
       <c r="I31" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1677,7 +1677,7 @@
         <v>119</v>
       </c>
       <c r="I32" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1706,7 +1706,7 @@
         <v>119</v>
       </c>
       <c r="I33" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1735,7 +1735,7 @@
         <v>119</v>
       </c>
       <c r="I34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1764,7 +1764,7 @@
         <v>119</v>
       </c>
       <c r="I35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1793,7 +1793,7 @@
         <v>119</v>
       </c>
       <c r="I36" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1851,7 +1851,7 @@
         <v>119</v>
       </c>
       <c r="I38" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1880,7 +1880,7 @@
         <v>119</v>
       </c>
       <c r="I39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1909,7 +1909,7 @@
         <v>119</v>
       </c>
       <c r="I40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1938,7 +1938,7 @@
         <v>119</v>
       </c>
       <c r="I41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1967,7 +1967,7 @@
         <v>119</v>
       </c>
       <c r="I42" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1996,7 +1996,7 @@
         <v>119</v>
       </c>
       <c r="I43" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2025,7 +2025,7 @@
         <v>119</v>
       </c>
       <c r="I44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2054,7 +2054,7 @@
         <v>119</v>
       </c>
       <c r="I45" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2083,7 +2083,7 @@
         <v>119</v>
       </c>
       <c r="I46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2112,7 +2112,7 @@
         <v>119</v>
       </c>
       <c r="I47" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2141,7 +2141,7 @@
         <v>118</v>
       </c>
       <c r="I48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2170,7 +2170,7 @@
         <v>119</v>
       </c>
       <c r="I49" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2228,7 +2228,7 @@
         <v>118</v>
       </c>
       <c r="I51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2344,7 +2344,7 @@
         <v>118</v>
       </c>
       <c r="I55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2373,7 +2373,7 @@
         <v>119</v>
       </c>
       <c r="I56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2402,7 +2402,7 @@
         <v>118</v>
       </c>
       <c r="I57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2431,7 +2431,7 @@
         <v>119</v>
       </c>
       <c r="I58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2489,7 +2489,7 @@
         <v>119</v>
       </c>
       <c r="I60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2518,7 +2518,7 @@
         <v>119</v>
       </c>
       <c r="I61" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2547,7 +2547,7 @@
         <v>118</v>
       </c>
       <c r="I62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2576,7 +2576,7 @@
         <v>119</v>
       </c>
       <c r="I63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2605,7 +2605,7 @@
         <v>119</v>
       </c>
       <c r="I64" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2634,7 +2634,7 @@
         <v>118</v>
       </c>
       <c r="I65" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2663,7 +2663,7 @@
         <v>118</v>
       </c>
       <c r="I66" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2692,7 +2692,7 @@
         <v>119</v>
       </c>
       <c r="I67" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2721,7 +2721,7 @@
         <v>119</v>
       </c>
       <c r="I68" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2750,7 +2750,7 @@
         <v>118</v>
       </c>
       <c r="I69" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2779,7 +2779,7 @@
         <v>118</v>
       </c>
       <c r="I70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2808,7 +2808,7 @@
         <v>118</v>
       </c>
       <c r="I71" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2837,7 +2837,7 @@
         <v>119</v>
       </c>
       <c r="I72" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2866,7 +2866,7 @@
         <v>118</v>
       </c>
       <c r="I73" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2895,7 +2895,7 @@
         <v>118</v>
       </c>
       <c r="I74" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2924,7 +2924,7 @@
         <v>119</v>
       </c>
       <c r="I75" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2953,7 +2953,7 @@
         <v>119</v>
       </c>
       <c r="I76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2982,7 +2982,7 @@
         <v>118</v>
       </c>
       <c r="I77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3011,7 +3011,7 @@
         <v>119</v>
       </c>
       <c r="I78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3040,7 +3040,7 @@
         <v>118</v>
       </c>
       <c r="I79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3069,7 +3069,7 @@
         <v>119</v>
       </c>
       <c r="I80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3127,7 +3127,7 @@
         <v>118</v>
       </c>
       <c r="I82" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3156,7 +3156,7 @@
         <v>118</v>
       </c>
       <c r="I83" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3185,7 +3185,7 @@
         <v>118</v>
       </c>
       <c r="I84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3214,7 +3214,7 @@
         <v>118</v>
       </c>
       <c r="I85" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3243,7 +3243,7 @@
         <v>118</v>
       </c>
       <c r="I86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3272,7 +3272,7 @@
         <v>118</v>
       </c>
       <c r="I87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3301,7 +3301,7 @@
         <v>118</v>
       </c>
       <c r="I88" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3330,7 +3330,7 @@
         <v>118</v>
       </c>
       <c r="I89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3359,7 +3359,7 @@
         <v>118</v>
       </c>
       <c r="I90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3388,7 +3388,7 @@
         <v>118</v>
       </c>
       <c r="I91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3417,7 +3417,7 @@
         <v>118</v>
       </c>
       <c r="I92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3446,7 +3446,7 @@
         <v>118</v>
       </c>
       <c r="I93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3475,7 +3475,7 @@
         <v>118</v>
       </c>
       <c r="I94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3504,7 +3504,7 @@
         <v>118</v>
       </c>
       <c r="I95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3533,7 +3533,7 @@
         <v>119</v>
       </c>
       <c r="I96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3562,7 +3562,7 @@
         <v>118</v>
       </c>
       <c r="I97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3591,7 +3591,7 @@
         <v>118</v>
       </c>
       <c r="I98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3620,7 +3620,7 @@
         <v>118</v>
       </c>
       <c r="I99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3649,7 +3649,7 @@
         <v>118</v>
       </c>
       <c r="I100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -3678,7 +3678,7 @@
         <v>118</v>
       </c>
       <c r="I101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -3707,7 +3707,7 @@
         <v>118</v>
       </c>
       <c r="I102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/static/sysfiles/download/results.xlsx
+++ b/static/sysfiles/download/results.xlsx
@@ -2025,7 +2025,7 @@
         <v>119</v>
       </c>
       <c r="I44" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2083,7 +2083,7 @@
         <v>119</v>
       </c>
       <c r="I46" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -3127,7 +3127,7 @@
         <v>118</v>
       </c>
       <c r="I82" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3156,7 +3156,7 @@
         <v>118</v>
       </c>
       <c r="I83" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3214,7 +3214,7 @@
         <v>118</v>
       </c>
       <c r="I85" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3301,7 +3301,7 @@
         <v>118</v>
       </c>
       <c r="I88" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89" spans="1:9">
